--- a/Aula_10/tempos.xlsx
+++ b/Aula_10/tempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monique/Documents/Unicamp/unicamp-P_IA368DD_2023S1/Aula_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9487542A-8C2A-F34A-9C25-03DFD602F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351AF84F-6DA4-9B42-8073-FB55E1BAEF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
+    <workbookView xWindow="16360" yWindow="2920" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,78 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7AB39F31-4547-4E4E-A96E-4CAF3BA8CCDF}</author>
+    <author>tc={9D455EE6-08CC-7642-AFEA-DF21244D76A9}</author>
+    <author>tc={4C1C8DDD-25CC-DA4A-86EA-ECEBFE19CA78}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{7AB39F31-4547-4E4E-A96E-4CAF3BA8CCDF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selecionado manualmente</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{9D455EE6-08CC-7642-AFEA-DF21244D76A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Saída de !nvidia-smi: Sun May  7 17:36:32 2023       
++-----------------------------------------------------------------------------+
+| NVIDIA-SMI 525.85.12    Driver Version: 525.85.12    CUDA Version: 12.0     |
+|-------------------------------+----------------------+----------------------+
+| GPU  Name        Persistence-M| Bus-Id        Disp.A | Volatile Uncorr. ECC |
+| Fan  Temp  Perf  Pwr:Usage/Cap|         Memory-Usage | GPU-Util  Compute M. |
+|                               |                      |               MIG M. |
+|===============================+======================+======================|
+|   0  Tesla T4            Off  | 00000000:00:04.0 Off |                    0 |
+| N/A   72C    P0    30W /  70W |  11069MiB / 15360MiB |      0%      Default |
+|                               |                      |                  N/A |
++-------------------------------+----------------------+----------------------+
++-----------------------------------------------------------------------------+
+| Processes:                                                                  |
+|  GPU   GI   CI        PID   Type   Process name                  GPU Memory |
+|        ID   ID                                                   Usage      |
+|=============================================================================|
++-----------------------------------------------------------------------------+</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="2" shapeId="0" xr:uid="{4C1C8DDD-25CC-DA4A-86EA-ECEBFE19CA78}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Saída de !nvidia-smi: Sun May  7 17:36:32 2023       
++-----------------------------------------------------------------------------+
+| NVIDIA-SMI 525.85.12    Driver Version: 525.85.12    CUDA Version: 12.0     |
+|-------------------------------+----------------------+----------------------+
+| GPU  Name        Persistence-M| Bus-Id        Disp.A | Volatile Uncorr. ECC |
+| Fan  Temp  Perf  Pwr:Usage/Cap|         Memory-Usage | GPU-Util  Compute M. |
+|                               |                      |               MIG M. |
+|===============================+======================+======================|
+|   0  Tesla T4            Off  | 00000000:00:04.0 Off |                    0 |
+| N/A   72C    P0    30W /  70W |  11069MiB / 15360MiB |      0%      Default |
+|                               |                      |                  N/A |
++-------------------------------+----------------------+----------------------+
++-----------------------------------------------------------------------------+
+| Processes:                                                                  |
+|  GPU   GI   CI        PID   Type   Process name                  GPU Memory |
+|        ID   ID                                                   Usage      |
+|=============================================================================|
++-----------------------------------------------------------------------------+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>tempo de indexação</t>
   </si>
@@ -48,16 +118,63 @@
   </si>
   <si>
     <t>A100</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>TODO: Implementar índice invertido persistido em disco</t>
+  </si>
+  <si>
+    <t>TODO: Testar com modelo InPars treinado na semaan passada (agora, usar para reranqueamento)</t>
+  </si>
+  <si>
+    <t>NDCG@10</t>
+  </si>
+  <si>
+    <t>Segs. p/ query</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>Pileplie 1: cross-encoder/ms-marco-MiniLM-L-6-v2</t>
+  </si>
+  <si>
+    <t>Pipeline 2: SPLADE - naver/splade_v2_distil (índice invertido em memória)</t>
+  </si>
+  <si>
+    <t>Pipeline 2: SPLADE - naver/splade-cocondenser-selfdistil (índice invertido em memória)</t>
+  </si>
+  <si>
+    <t>Pipeline 2: SPLADE - naver/splade-cocondenser-ensembledistil (índice invertido em memória)</t>
+  </si>
+  <si>
+    <t>Pipeline 3: BM25 + SPLADE</t>
+  </si>
+  <si>
+    <t>41,13segs para tokenização, 18m25s para geração da matriz de documentos + 20m53s para construção de índice invertido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +197,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -100,6 +223,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Monique Louise" id="{45383F70-7636-0341-9FA0-3730F50DE452}" userId="44d0b240acf70eca" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,36 +526,213 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2023-05-07T17:35:44.61" personId="{45383F70-7636-0341-9FA0-3730F50DE452}" id="{7AB39F31-4547-4E4E-A96E-4CAF3BA8CCDF}">
+    <text>Selecionado manualmente</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2023-05-07T17:37:43.91" personId="{45383F70-7636-0341-9FA0-3730F50DE452}" id="{9D455EE6-08CC-7642-AFEA-DF21244D76A9}">
+    <text>Saída de !nvidia-smi: Sun May  7 17:36:32 2023       
++-----------------------------------------------------------------------------+
+| NVIDIA-SMI 525.85.12    Driver Version: 525.85.12    CUDA Version: 12.0     |
+|-------------------------------+----------------------+----------------------+
+| GPU  Name        Persistence-M| Bus-Id        Disp.A | Volatile Uncorr. ECC |
+| Fan  Temp  Perf  Pwr:Usage/Cap|         Memory-Usage | GPU-Util  Compute M. |
+|                               |                      |               MIG M. |
+|===============================+======================+======================|
+|   0  Tesla T4            Off  | 00000000:00:04.0 Off |                    0 |
+| N/A   72C    P0    30W /  70W |  11069MiB / 15360MiB |      0%      Default |
+|                               |                      |                  N/A |
++-------------------------------+----------------------+----------------------+
++-----------------------------------------------------------------------------+
+| Processes:                                                                  |
+|  GPU   GI   CI        PID   Type   Process name                  GPU Memory |
+|        ID   ID                                                   Usage      |
+|=============================================================================|
++-----------------------------------------------------------------------------+</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2023-05-07T17:37:43.91" personId="{45383F70-7636-0341-9FA0-3730F50DE452}" id="{4C1C8DDD-25CC-DA4A-86EA-ECEBFE19CA78}">
+    <text>Saída de !nvidia-smi: Sun May  7 17:36:32 2023       
++-----------------------------------------------------------------------------+
+| NVIDIA-SMI 525.85.12    Driver Version: 525.85.12    CUDA Version: 12.0     |
+|-------------------------------+----------------------+----------------------+
+| GPU  Name        Persistence-M| Bus-Id        Disp.A | Volatile Uncorr. ECC |
+| Fan  Temp  Perf  Pwr:Usage/Cap|         Memory-Usage | GPU-Util  Compute M. |
+|                               |                      |               MIG M. |
+|===============================+======================+======================|
+|   0  Tesla T4            Off  | 00000000:00:04.0 Off |                    0 |
+| N/A   72C    P0    30W /  70W |  11069MiB / 15360MiB |      0%      Default |
+|                               |                      |                  N/A |
++-------------------------------+----------------------+----------------------+
++-----------------------------------------------------------------------------+
+| Processes:                                                                  |
+|  GPU   GI   CI        PID   Type   Process name                  GPU Memory |
+|        ID   ID                                                   Usage      |
+|=============================================================================|
++-----------------------------------------------------------------------------+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F94F0-7896-4343-BFFC-355006A198F2}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F94F0-7896-4343-BFFC-355006A198F2}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>512</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0.7268</v>
+      </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
+      <c r="F8">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0.7419</v>
+      </c>
+      <c r="E9">
+        <v>256</v>
+      </c>
+      <c r="F9">
+        <v>0.53</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{8F62D0E1-FC4E-D941-BE78-3FCC4F4BB603}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Aula_10/tempos.xlsx
+++ b/Aula_10/tempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monique/Documents/Unicamp/unicamp-P_IA368DD_2023S1/Aula_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351AF84F-6DA4-9B42-8073-FB55E1BAEF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB6815-77BA-9440-B72A-DE2C9A7108D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="2920" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>tempo de indexação</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>41,13segs para tokenização, 18m25s para geração da matriz de documentos + 20m53s para construção de índice invertido</t>
+  </si>
+  <si>
+    <t>Pipeline 4: Doc2Query + BM25 + SPLADE</t>
+  </si>
+  <si>
+    <t>34,33segs para tokenização, 36m36s para geração da metriz de documentos + 3h35m34s para construção do índice invertido</t>
+  </si>
+  <si>
+    <t>V100</t>
   </si>
 </sst>
 </file>
@@ -576,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F94F0-7896-4343-BFFC-355006A198F2}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,6 +737,31 @@
         <v>0.53</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{8F62D0E1-FC4E-D941-BE78-3FCC4F4BB603}"/>

--- a/Aula_10/tempos.xlsx
+++ b/Aula_10/tempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monique/Documents/Unicamp/unicamp-P_IA368DD_2023S1/Aula_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB6815-77BA-9440-B72A-DE2C9A7108D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A394B-235A-7D42-90B9-A6616838047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16360" yWindow="2920" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
+    <workbookView xWindow="540" yWindow="1180" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>tempo de indexação</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Pipeline 2: SPLADE - naver/splade-cocondenser-ensembledistil (índice invertido em memória)</t>
   </si>
   <si>
-    <t>Pipeline 3: BM25 + SPLADE</t>
-  </si>
-  <si>
     <t>41,13segs para tokenização, 18m25s para geração da matriz de documentos + 20m53s para construção de índice invertido</t>
   </si>
   <si>
@@ -165,14 +162,26 @@
     <t>34,33segs para tokenização, 36m36s para geração da metriz de documentos + 3h35m34s para construção do índice invertido</t>
   </si>
   <si>
-    <t>V100</t>
+    <t>Pipeline 4: Doc2Query + BM25 + SPLADE (top k = 1000)</t>
+  </si>
+  <si>
+    <t>Pipeline 3: BM25 + SPLADE (top k = 1000)</t>
+  </si>
+  <si>
+    <t>Pipeline 3: BM25 + SPLADE (top k = 100)</t>
+  </si>
+  <si>
+    <t>Pipeline 4: Doc2Query + BM25 + SPLADE (top k = 100)</t>
+  </si>
+  <si>
+    <t>Pipeline 5: Doc2Query + SPLADE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +193,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,12 +227,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F94F0-7896-4343-BFFC-355006A198F2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,7 +717,7 @@
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -719,13 +737,13 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>0.7419</v>
@@ -734,32 +752,83 @@
         <v>256</v>
       </c>
       <c r="F9">
-        <v>0.53</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>0.74160000000000004</v>
+        <v>0.74019999999999997</v>
       </c>
       <c r="E10">
         <v>256</v>
       </c>
+      <c r="F10">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="E11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="E12">
+        <v>256</v>
+      </c>
+      <c r="F12">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="E13">
+        <v>256</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>0.7319</v>
+      </c>
+      <c r="E14">
+        <v>256</v>
+      </c>
+      <c r="F14">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/Aula_10/tempos.xlsx
+++ b/Aula_10/tempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monique/Documents/Unicamp/unicamp-P_IA368DD_2023S1/Aula_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A394B-235A-7D42-90B9-A6616838047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2906A142-BEF6-1644-BB49-7DE8029EE079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1180" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>tempo de indexação</t>
   </si>
@@ -175,13 +175,19 @@
   </si>
   <si>
     <t>Pipeline 5: Doc2Query + SPLADE</t>
+  </si>
+  <si>
+    <t>Pipeline 6: Doc2Query + Pyserini BM25 + SPLADE Reranking + InPars Reranking</t>
+  </si>
+  <si>
+    <t>Pipeline 7: Doc2Query + SPLADE Reranking + InPars Reranking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,6 +207,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,13 +239,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F94F0-7896-4343-BFFC-355006A198F2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,10 +817,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0.74429999999999996</v>
       </c>
       <c r="E13">
@@ -818,6 +834,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
@@ -831,7 +850,42 @@
         <v>1.07</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="E15">
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="E16">
+        <v>256</v>
+      </c>
+      <c r="F16">
+        <v>1.91</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{8F62D0E1-FC4E-D941-BE78-3FCC4F4BB603}"/>
   </hyperlinks>

--- a/Aula_10/tempos.xlsx
+++ b/Aula_10/tempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monique/Documents/Unicamp/unicamp-P_IA368DD_2023S1/Aula_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2906A142-BEF6-1644-BB49-7DE8029EE079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B8826-98FD-9E49-9530-7CC059FC7DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1180" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>tempo de indexação</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Pipeline 7: Doc2Query + SPLADE Reranking + InPars Reranking</t>
+  </si>
+  <si>
+    <t>Pipeline 8: BM25 + SPLADE + MonoT5 (top k = 1000)</t>
+  </si>
+  <si>
+    <t>Pipeline 8: BM25 + SPLADE + MonoT5 (top k = 100)</t>
   </si>
 </sst>
 </file>
@@ -616,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F94F0-7896-4343-BFFC-355006A198F2}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,6 +890,57 @@
         <v>1.91</v>
       </c>
     </row>
+    <row r="17" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="E17">
+        <v>256</v>
+      </c>
+      <c r="F17">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="E18">
+        <v>256</v>
+      </c>
+      <c r="F18">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="E19">
+        <v>256</v>
+      </c>
+      <c r="F19">
+        <v>2.57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/Aula_10/tempos.xlsx
+++ b/Aula_10/tempos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monique/Documents/Unicamp/unicamp-P_IA368DD_2023S1/Aula_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B8826-98FD-9E49-9530-7CC059FC7DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBD7D1D-42FF-1846-AC56-391E74A62108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1180" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
+    <workbookView xWindow="20" yWindow="700" windowWidth="28040" windowHeight="16080" xr2:uid="{70EA5F8D-0CC0-6443-8A8D-81C2DEE554E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>tempo de indexação</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Pipeline 8: BM25 + SPLADE + MonoT5 (top k = 100)</t>
+  </si>
+  <si>
+    <t>Pipeline 8: BM25 + SPLADE + MonoT5 (top k = 50)</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4">
         <v>0.81279999999999997</v>
@@ -938,7 +941,7 @@
         <v>256</v>
       </c>
       <c r="F19">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
     </row>
   </sheetData>
